--- a/dados_realiz-2023_tratados.xlsx
+++ b/dados_realiz-2023_tratados.xlsx
@@ -660,7 +660,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bradesco Aut</t>
+          <t>Outros Renda Fixa</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/dados_realiz-2023_tratados.xlsx
+++ b/dados_realiz-2023_tratados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>Total Anual</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Preço Médio Pago</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -558,6 +563,9 @@
       <c r="O2" t="n">
         <v>4887.88</v>
       </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,6 +615,9 @@
       <c r="O3" t="n">
         <v>3070.99</v>
       </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
       <c r="O4" t="n">
         <v>2598</v>
       </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,6 +719,9 @@
       <c r="O5" t="n">
         <v>472.99</v>
       </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -752,7 +769,10 @@
         <v>226.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1357.51</v>
+        <v>1562.71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>205.2</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +821,10 @@
         <v>3.97</v>
       </c>
       <c r="O7" t="n">
-        <v>23.8</v>
+        <v>3375.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3351.6</v>
       </c>
     </row>
     <row r="8">
@@ -850,7 +873,10 @@
         <v>25.45</v>
       </c>
       <c r="O8" t="n">
-        <v>152.7</v>
+        <v>3379.84</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3227.14</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +925,10 @@
         <v>46.45</v>
       </c>
       <c r="O9" t="n">
-        <v>278.69</v>
+        <v>3498.13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3219.44</v>
       </c>
     </row>
     <row r="10">
@@ -948,7 +977,10 @@
         <v>44.8</v>
       </c>
       <c r="O10" t="n">
-        <v>268.82</v>
+        <v>3264.12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2995.3</v>
       </c>
     </row>
     <row r="11">
@@ -997,7 +1029,10 @@
         <v>33.5</v>
       </c>
       <c r="O11" t="n">
-        <v>201</v>
+        <v>3244.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3043.3</v>
       </c>
     </row>
     <row r="12">
@@ -1046,7 +1081,10 @@
         <v>29.33</v>
       </c>
       <c r="O12" t="n">
-        <v>176</v>
+        <v>3218.39</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3042.39</v>
       </c>
     </row>
     <row r="13">
@@ -1095,7 +1133,10 @@
         <v>21.67</v>
       </c>
       <c r="O13" t="n">
-        <v>130</v>
+        <v>3148.54</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3018.54</v>
       </c>
     </row>
     <row r="14">
@@ -1146,6 +1187,9 @@
       <c r="O14" t="n">
         <v>126.5</v>
       </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1195,6 +1239,9 @@
       <c r="O15" t="n">
         <v>459.38</v>
       </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1244,6 +1291,9 @@
       <c r="O16" t="n">
         <v>38.79</v>
       </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1293,6 +1343,9 @@
       <c r="O17" t="n">
         <v>107.97</v>
       </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1342,6 +1395,9 @@
       <c r="O18" t="n">
         <v>101.78</v>
       </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1391,6 +1447,9 @@
       <c r="O19" t="n">
         <v>148.31</v>
       </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1440,6 +1499,9 @@
       <c r="O20" t="n">
         <v>62.53</v>
       </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1489,6 +1551,9 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1536,6 +1601,9 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dados_realiz-2023_tratados.xlsx
+++ b/dados_realiz-2023_tratados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e62e7c97e835051/Altieri/Softwares/Dev/Projetos Pessoais/Projeto_Carteira_Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_4DF5D3B2D300D562177B2211595ED87656CD0F7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED512DD-49E9-42BC-90F9-AFE637623347}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_4DF5D3B2D300D562177B2211595ED87656CD0F7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{238BF67F-5B7F-40C8-9E88-29FA326C065D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,6 +206,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +500,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,13 +563,13 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E2">
         <v>462.97</v>
@@ -709,13 +713,13 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>150</v>

--- a/dados_realiz-2023_tratados.xlsx
+++ b/dados_realiz-2023_tratados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e62e7c97e835051/Altieri/Softwares/Dev/Projetos Pessoais/Projeto_Carteira_Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_2B59D2BFD3D0D61487B8261159D938364AD7D306" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA0A5A6A-EF56-4634-A251-C159075A6667}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_2B59D2BFD3D0D61487B8261159D938364AD7D306" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45432276-8E09-49C0-BD8F-00386B98D6FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,6 +191,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,10 +485,13 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/dados_realiz-2023_tratados.xlsx
+++ b/dados_realiz-2023_tratados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e62e7c97e835051/Altieri/Softwares/Dev/Projetos Pessoais/Projeto_Carteira_Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_2B59D2BFD3D0D61487B8261159D938364AD7D306" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45432276-8E09-49C0-BD8F-00386B98D6FA}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_2B59D2BFD3D0D61487B8261159D938364AD7D306" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2157A93C-3EE0-4DAA-B568-7CC9174B7375}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-1980" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Ativos</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>WEGE DIV</t>
+  </si>
+  <si>
+    <t>WEGE J/C</t>
+  </si>
+  <si>
+    <t>VSHO11</t>
   </si>
 </sst>
 </file>
@@ -482,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1054,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1069,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.549999999999997</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1081,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>6.46</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>38.79</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1095,7 +1104,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1119,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>56.03</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1131,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>51.94</v>
+        <v>1.24</v>
       </c>
       <c r="N13">
-        <v>18</v>
+        <v>6.46</v>
       </c>
       <c r="O13">
-        <v>107.97</v>
+        <v>38.79</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1145,7 +1154,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1169,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>56.03</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1181,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>101.78</v>
+        <v>51.94</v>
       </c>
       <c r="N14">
-        <v>16.96</v>
+        <v>18</v>
       </c>
       <c r="O14">
-        <v>101.78</v>
+        <v>107.97</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1195,7 +1204,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1219,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1231,13 +1240,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42.31</v>
+        <v>101.78</v>
       </c>
       <c r="N15">
-        <v>24.72</v>
+        <v>16.96</v>
       </c>
       <c r="O15">
-        <v>148.31</v>
+        <v>101.78</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1245,7 +1254,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1269,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1281,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>62.53</v>
+        <v>42.31</v>
       </c>
       <c r="N16">
-        <v>10.42</v>
+        <v>24.72</v>
       </c>
       <c r="O16">
-        <v>62.53</v>
+        <v>148.31</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1295,51 +1304,195 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>16.68</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.39</v>
+      </c>
+      <c r="O17">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>6.27</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.52</v>
+      </c>
+      <c r="O18">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>62.53</v>
+      </c>
+      <c r="N19">
+        <v>10.42</v>
+      </c>
+      <c r="O19">
+        <v>62.53</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
     </row>

--- a/dados_realiz-2023_tratados.xlsx
+++ b/dados_realiz-2023_tratados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e62e7c97e835051/Altieri/Softwares/Dev/Projetos Pessoais/Projeto_Carteira_Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_2B59D2BFD3D0D61487B8261159D938364AD7D306" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2157A93C-3EE0-4DAA-B568-7CC9174B7375}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_2B59D2BFD3D0D61487B8261159D938364AD7D306" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EE8684-7615-4142-AC55-CD496AE1E71A}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-1980" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Ativos</t>
   </si>
@@ -116,15 +116,6 @@
   </si>
   <si>
     <t>Bitcoin</t>
-  </si>
-  <si>
-    <t>WEGE DIV</t>
-  </si>
-  <si>
-    <t>WEGE J/C</t>
-  </si>
-  <si>
-    <t>VSHO11</t>
   </si>
 </sst>
 </file>
@@ -491,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1045,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1078,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1090,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.46</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>38.79</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1104,7 +1095,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1128,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.549999999999997</v>
+        <v>56.03</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1140,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.24</v>
+        <v>51.94</v>
       </c>
       <c r="N13">
-        <v>6.46</v>
+        <v>18</v>
       </c>
       <c r="O13">
-        <v>38.79</v>
+        <v>107.97</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1154,7 +1145,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1178,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>56.03</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1190,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>51.94</v>
+        <v>101.78</v>
       </c>
       <c r="N14">
-        <v>18</v>
+        <v>16.96</v>
       </c>
       <c r="O14">
-        <v>107.97</v>
+        <v>101.78</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1204,7 +1195,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1228,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1240,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>101.78</v>
+        <v>42.31</v>
       </c>
       <c r="N15">
-        <v>16.96</v>
+        <v>24.72</v>
       </c>
       <c r="O15">
-        <v>101.78</v>
+        <v>148.31</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1254,7 +1245,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1278,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1290,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>42.31</v>
+        <v>62.53</v>
       </c>
       <c r="N16">
-        <v>24.72</v>
+        <v>10.42</v>
       </c>
       <c r="O16">
-        <v>148.31</v>
+        <v>62.53</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1304,7 +1295,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1313,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.68</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1343,156 +1334,12 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>6.27</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0.52</v>
-      </c>
-      <c r="O18">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>62.53</v>
-      </c>
-      <c r="N19">
-        <v>10.42</v>
-      </c>
-      <c r="O19">
-        <v>62.53</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>0</v>
       </c>
     </row>

--- a/dados_realiz-2023_tratados.xlsx
+++ b/dados_realiz-2023_tratados.xlsx
@@ -1350,7 +1350,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UNIP6 DIV</t>
+          <t>WEGE J/C</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.27</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>62.53</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>10.42</v>
+        <v>0.52</v>
       </c>
       <c r="O18" t="n">
-        <v>62.53</v>
+        <v>6.27</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total Crypto</t>
+          <t>UNIP6 DIV</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1439,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>62.53</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>10.42</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>62.53</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
